--- a/ExcelReaderScript/Testcase_1_date.xlsx
+++ b/ExcelReaderScript/Testcase_1_date.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Testcase name</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +777,198 @@
         <v>5</v>
       </c>
       <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
         <v>6</v>
       </c>
     </row>

--- a/ExcelReaderScript/Testcase_1_date.xlsx
+++ b/ExcelReaderScript/Testcase_1_date.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Testcase name</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Testcase_1_009</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,8 +930,8 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>10</v>
+      <c r="G15" t="s">
+        <v>29</v>
       </c>
       <c r="H15">
         <v>4</v>

--- a/ExcelReaderScript/Testcase_1_date.xlsx
+++ b/ExcelReaderScript/Testcase_1_date.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>Testcase name</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>[Phone]</t>
+  </si>
+  <si>
+    <t>testbench</t>
+  </si>
+  <si>
+    <t>SYS-110.tbc</t>
+  </si>
+  <si>
+    <t>SYS-112.tbc</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K1" sqref="K1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,9 +504,10 @@
     <col min="8" max="8" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +538,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,8 +573,11 @@
       <c r="J2" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -592,8 +608,11 @@
       <c r="J3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -624,8 +643,11 @@
       <c r="J4" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -656,8 +678,11 @@
       <c r="J5" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -688,8 +713,11 @@
       <c r="J6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -720,8 +748,11 @@
       <c r="J7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -752,8 +783,11 @@
       <c r="J8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -784,8 +818,11 @@
       <c r="J9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -816,8 +853,11 @@
       <c r="J10" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -848,8 +888,11 @@
       <c r="J11" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,8 +923,11 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -912,8 +958,11 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +993,11 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -976,8 +1028,11 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1008,8 +1063,11 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1037,8 +1095,11 @@
       <c r="J17" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1066,8 +1127,11 @@
       <c r="J18" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1094,6 +1158,9 @@
       </c>
       <c r="J19" s="5">
         <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelReaderScript/Testcase_1_date.xlsx
+++ b/ExcelReaderScript/Testcase_1_date.xlsx
@@ -487,10 +487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
     <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,29 +520,29 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,29 +555,29 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2</v>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
-        <v>4</v>
-      </c>
       <c r="I2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -590,29 +590,29 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
       <c r="G3" s="3">
         <v>2</v>
       </c>
       <c r="H3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -625,29 +625,29 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
-        <v>4</v>
-      </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -660,29 +660,29 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -695,29 +695,29 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -730,29 +730,29 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -765,29 +765,29 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
       <c r="I8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -800,29 +800,29 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
       <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
       <c r="I9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>6</v>
-      </c>
-      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -835,29 +835,29 @@
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
         <v>9</v>
       </c>
-      <c r="H10" s="3">
-        <v>4</v>
-      </c>
       <c r="I10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -870,29 +870,29 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <v>14</v>
       </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
       <c r="I11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="3">
-        <v>6</v>
-      </c>
-      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,29 +905,29 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
       <c r="G12" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,29 +940,29 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>16</v>
       </c>
-      <c r="H13" s="3">
-        <v>4</v>
-      </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -975,131 +975,108 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1</v>
       </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
-        <v>17</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>8</v>
-      </c>
-      <c r="H17" s="5">
-        <v>4</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="5">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1107,31 +1084,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="5">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
         <v>8</v>
       </c>
-      <c r="H18" s="5">
-        <v>4</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="5">
-        <v>6</v>
-      </c>
-      <c r="K18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="5">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1139,27 +1116,59 @@
         <v>11</v>
       </c>
       <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>8</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="5">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
         <v>19</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
         <v>8</v>
       </c>
-      <c r="H19" s="5">
-        <v>4</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="I20" s="5">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="5">
-        <v>6</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="K20" s="5">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
         <v>35</v>
       </c>
     </row>

--- a/ExcelReaderScript/Testcase_1_date.xlsx
+++ b/ExcelReaderScript/Testcase_1_date.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
   <si>
     <t>Testcase name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>R_Variable5</t>
   </si>
   <si>
-    <t>R_Variable6</t>
-  </si>
-  <si>
     <t>Testcase_1</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>[['Willkommen', 3.768]]</t>
+  </si>
+  <si>
+    <t>R_Variable19</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,27 +538,27 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
@@ -573,27 +573,27 @@
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -607,28 +607,28 @@
       <c r="J3" s="3">
         <v>5</v>
       </c>
-      <c r="K3" s="3">
-        <v>6</v>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -642,28 +642,28 @@
       <c r="J4" s="3">
         <v>5</v>
       </c>
-      <c r="K4" s="3">
-        <v>6</v>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -677,28 +677,28 @@
       <c r="J5" s="3">
         <v>5</v>
       </c>
-      <c r="K5" s="3">
-        <v>6</v>
+      <c r="K5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
@@ -712,28 +712,28 @@
       <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="K6" s="3">
-        <v>6</v>
+      <c r="K6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -747,28 +747,28 @@
       <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="K7" s="3">
-        <v>6</v>
+      <c r="K7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
@@ -782,28 +782,28 @@
       <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="3">
-        <v>6</v>
+      <c r="K8" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -817,28 +817,28 @@
       <c r="J9" s="3">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
-        <v>6</v>
+      <c r="K9" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -852,28 +852,28 @@
       <c r="J10" s="3">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
-        <v>6</v>
+      <c r="K10" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -887,28 +887,28 @@
       <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K11" s="3">
-        <v>6</v>
+      <c r="K11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
@@ -922,28 +922,28 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3">
-        <v>6</v>
+      <c r="K12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
@@ -957,28 +957,28 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3">
-        <v>6</v>
+      <c r="K13" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -992,11 +992,11 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>6</v>
+      <c r="K14" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,19 +1010,19 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -1036,28 +1036,28 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3">
-        <v>6</v>
+      <c r="K16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -1071,25 +1071,25 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
-        <v>6</v>
+      <c r="K17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1101,27 +1101,27 @@
         <v>4</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="5">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -1133,27 +1133,27 @@
         <v>4</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="5">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="5">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
